--- a/版面设计.xlsx
+++ b/版面设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="17232" windowHeight="11208" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="17232" windowHeight="11208"/>
   </bookViews>
   <sheets>
     <sheet name="版面设计" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
   <si>
     <t>未收款</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HY-12C</t>
   </si>
   <si>
     <t>HY-12E</t>
@@ -463,6 +460,10 @@
   </si>
   <si>
     <t>知会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -981,196 +982,196 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG90"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1903,39 +1904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="L1" s="82" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="L1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="W1" s="82" t="s">
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="W1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
     </row>
     <row r="2" spans="1:33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2019,23 +2020,23 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="L5" s="108" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="L5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="109"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2047,12 +2048,12 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="109"/>
+      <c r="X5" s="92"/>
       <c r="Y5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2065,7 @@
       </c>
       <c r="AD5" s="29"/>
       <c r="AE5" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -2073,11 +2074,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
+      <c r="G6" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
       <c r="L6" s="6"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2101,43 +2102,43 @@
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="133"/>
       <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="7"/>
       <c r="W7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="78" t="s">
+      <c r="X7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="7"/>
@@ -2146,40 +2147,40 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="2"/>
       <c r="I8" s="7"/>
       <c r="L8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="110" t="s">
+      <c r="M8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
       <c r="S8" s="2"/>
       <c r="T8" s="7"/>
       <c r="W8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="110" t="s">
+      <c r="X8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="7"/>
     </row>
@@ -2210,63 +2211,63 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="82"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="82" t="s">
+      <c r="R10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="82"/>
+      <c r="S10" s="87"/>
       <c r="T10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="82" t="s">
+      <c r="X10" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
       <c r="AA10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="82" t="s">
+      <c r="AC10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="AD10" s="82"/>
+      <c r="AD10" s="87"/>
       <c r="AE10" s="9" t="s">
         <v>17</v>
       </c>
@@ -2275,131 +2276,131 @@
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="9">
         <v>25</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="9">
         <v>25</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
       <c r="T11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="96" t="s">
+      <c r="U11" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="120"/>
+      <c r="V11" s="104"/>
       <c r="W11" s="9">
         <v>1</v>
       </c>
-      <c r="X11" s="82" t="s">
+      <c r="X11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
       <c r="AA11" s="9">
         <v>25</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="96" t="s">
+      <c r="AF11" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AG11" s="95"/>
+      <c r="AG11" s="101"/>
     </row>
     <row r="12" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="9">
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="119"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="9">
         <v>30</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
       <c r="T12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="96"/>
-      <c r="V12" s="120"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="9">
         <v>2</v>
       </c>
-      <c r="X12" s="82" t="s">
+      <c r="X12" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
       <c r="AA12" s="9">
         <v>30</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
       <c r="AE12" s="12"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="95"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -2431,41 +2432,41 @@
       <c r="AE13" s="5"/>
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="96" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="96" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="116" t="s">
+      <c r="G14" s="96" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="117" t="s">
+      <c r="I14" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="111" t="s">
+      <c r="L14" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
       <c r="S14" s="13"/>
       <c r="T14" s="15"/>
-      <c r="W14" s="111" t="s">
+      <c r="W14" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="13"/>
@@ -2474,47 +2475,47 @@
       <c r="AE14" s="15"/>
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="116"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="116"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="116"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="117"/>
+      <c r="I15" s="97"/>
       <c r="L15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="93"/>
+      <c r="N15" s="105"/>
       <c r="O15" s="17"/>
       <c r="P15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="93" t="s">
+      <c r="Q15" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="93"/>
+      <c r="R15" s="105"/>
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
       <c r="W15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="X15" s="93" t="s">
+      <c r="X15" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="Y15" s="93"/>
+      <c r="Y15" s="105"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AB15" s="93" t="s">
+      <c r="AB15" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AC15" s="93"/>
+      <c r="AC15" s="105"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="18"/>
     </row>
@@ -2549,66 +2550,66 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
       <c r="L17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="93" t="s">
+      <c r="N17" s="105"/>
+      <c r="O17" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="114"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="W17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="93" t="s">
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA17" s="114"/>
+      <c r="AA17" s="107"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="75"/>
+        <v>46</v>
+      </c>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="117"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2635,22 +2636,22 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="7"/>
       <c r="L19" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
@@ -2661,7 +2662,7 @@
       <c r="S19" s="13"/>
       <c r="T19" s="35"/>
       <c r="W19" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
@@ -2674,42 +2675,42 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="7"/>
       <c r="L20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="75"/>
+        <v>53</v>
+      </c>
+      <c r="M20" s="108"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="117"/>
       <c r="W20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="75"/>
+        <v>53</v>
+      </c>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="117"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
@@ -2719,35 +2720,35 @@
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
       <c r="L21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
+        <v>54</v>
+      </c>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
       <c r="W21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
+        <v>54</v>
+      </c>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2756,35 +2757,35 @@
       <c r="H22" s="2"/>
       <c r="I22" s="7"/>
       <c r="L22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
+        <v>85</v>
+      </c>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
       <c r="W22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
+        <v>85</v>
+      </c>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2813,11 +2814,11 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="17"/>
@@ -2846,11 +2847,11 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="28"/>
@@ -2909,40 +2910,40 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="80" t="s">
-        <v>58</v>
+      <c r="C27" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="41"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="80" t="s">
-        <v>59</v>
+      <c r="G27" s="109" t="s">
+        <v>58</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="7"/>
       <c r="L27" s="6"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="80" t="s">
-        <v>58</v>
+      <c r="N27" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="82" t="s">
-        <v>59</v>
+      <c r="R27" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="7"/>
       <c r="W27" s="6"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="80" t="s">
-        <v>58</v>
+      <c r="Y27" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="41"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="82" t="s">
-        <v>59</v>
+      <c r="AC27" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="7"/>
@@ -2950,66 +2951,66 @@
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="81"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="43"/>
       <c r="E28" s="44"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="43"/>
       <c r="I28" s="45"/>
       <c r="L28" s="42"/>
       <c r="M28" s="43"/>
-      <c r="N28" s="81"/>
+      <c r="N28" s="110"/>
       <c r="O28" s="43"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="43"/>
-      <c r="R28" s="82"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="43"/>
       <c r="T28" s="45"/>
       <c r="W28" s="42"/>
       <c r="X28" s="43"/>
-      <c r="Y28" s="81"/>
+      <c r="Y28" s="110"/>
       <c r="Z28" s="43"/>
       <c r="AA28" s="44"/>
       <c r="AB28" s="43"/>
-      <c r="AC28" s="82"/>
+      <c r="AC28" s="87"/>
       <c r="AD28" s="43"/>
       <c r="AE28" s="45"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="L33" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="W33" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
+      <c r="A33" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="L33" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="W33" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="87"/>
+      <c r="AE33" s="87"/>
     </row>
     <row r="34" spans="1:33" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -3093,10 +3094,10 @@
       <c r="AE36" s="7"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="109"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
@@ -3108,10 +3109,10 @@
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="L37" s="97"/>
-      <c r="M37" s="98"/>
+        <v>74</v>
+      </c>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
       <c r="N37" s="57"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -3121,10 +3122,10 @@
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="W37" s="97"/>
-      <c r="X37" s="98"/>
+        <v>74</v>
+      </c>
+      <c r="W37" s="118"/>
+      <c r="X37" s="119"/>
       <c r="Y37" s="57"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -3134,7 +3135,7 @@
       </c>
       <c r="AD37" s="29"/>
       <c r="AE37" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
@@ -3170,108 +3171,108 @@
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="7"/>
       <c r="L39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="82" t="s">
+      <c r="M39" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
       <c r="P39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R39" s="82" t="s">
+      <c r="R39" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="82"/>
+      <c r="S39" s="87"/>
       <c r="T39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="W39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X39" s="82" t="s">
+      <c r="X39" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
       <c r="AA39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AB39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC39" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD39" s="82"/>
+      <c r="AC39" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD39" s="87"/>
       <c r="AE39" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="2"/>
       <c r="I40" s="7"/>
       <c r="L40" s="9">
         <v>1</v>
       </c>
-      <c r="M40" s="82" t="s">
+      <c r="M40" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
       <c r="P40" s="9">
         <v>25</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
       <c r="T40" s="9"/>
       <c r="W40" s="9">
         <v>1</v>
       </c>
-      <c r="X40" s="82" t="s">
+      <c r="X40" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
       <c r="AA40" s="9">
         <v>25</v>
       </c>
       <c r="AB40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AC40" s="82">
+      <c r="AC40" s="87">
         <v>25</v>
       </c>
-      <c r="AD40" s="82"/>
+      <c r="AD40" s="87"/>
       <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
@@ -3287,59 +3288,59 @@
       <c r="L41" s="9">
         <v>2</v>
       </c>
-      <c r="M41" s="82" t="s">
+      <c r="M41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="9">
         <v>30</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
       <c r="T41" s="9"/>
       <c r="W41" s="9">
         <v>2</v>
       </c>
-      <c r="X41" s="82" t="s">
+      <c r="X41" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
       <c r="AA41" s="9">
         <v>30</v>
       </c>
       <c r="AB41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AC41" s="82">
+      <c r="AC41" s="87">
         <v>30</v>
       </c>
-      <c r="AD41" s="82"/>
+      <c r="AD41" s="87"/>
       <c r="AE41" s="9"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="82"/>
+      <c r="H42" s="87"/>
       <c r="I42" s="9" t="s">
         <v>17</v>
       </c>
@@ -3366,24 +3367,24 @@
       <c r="A43" s="9">
         <v>1</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="9">
         <v>25</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M43" s="33"/>
       <c r="N43" s="33"/>
@@ -3394,11 +3395,11 @@
       <c r="S43" s="13"/>
       <c r="T43" s="35"/>
       <c r="U43" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V43" s="11"/>
       <c r="W43" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -3408,65 +3409,65 @@
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="35"/>
-      <c r="AF43" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG43" s="95"/>
+      <c r="AF43" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG43" s="101"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>2</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
       <c r="E44" s="9">
         <v>30</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" s="85"/>
+      <c r="J44" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="129"/>
       <c r="L44" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="74"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="85"/>
+        <v>53</v>
+      </c>
+      <c r="M44" s="108"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="117"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="129"/>
       <c r="W44" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="X44" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y44" s="77"/>
+        <v>75</v>
+      </c>
+      <c r="X44" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y44" s="126"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="96"/>
-      <c r="AG44" s="95"/>
+      <c r="AB44" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC44" s="126"/>
+      <c r="AD44" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE44" s="126"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="101"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3479,16 +3480,16 @@
       <c r="H45" s="2"/>
       <c r="I45" s="5"/>
       <c r="L45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
+        <v>54</v>
+      </c>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
       <c r="W45" s="19"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
@@ -3500,60 +3501,60 @@
       <c r="AE45" s="20"/>
     </row>
     <row r="46" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="102"/>
+      <c r="A46" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="114"/>
       <c r="L46" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
+        <v>85</v>
+      </c>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
       <c r="W46" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="X46" s="93">
+        <v>77</v>
+      </c>
+      <c r="X46" s="105">
         <v>13812341234</v>
       </c>
-      <c r="Y46" s="93"/>
+      <c r="Y46" s="105"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
-      <c r="AB46" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC46" s="92"/>
-      <c r="AD46" s="92">
+      <c r="AB46" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC46" s="115"/>
+      <c r="AD46" s="115">
         <v>4409021988</v>
       </c>
-      <c r="AE46" s="92"/>
+      <c r="AE46" s="115"/>
     </row>
     <row r="47" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
+        <v>61</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
       <c r="L47" s="63"/>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
@@ -3575,20 +3576,20 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
+        <v>62</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
       <c r="L48" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
@@ -3610,35 +3611,35 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
+        <v>69</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
       <c r="L49" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="N49" s="77"/>
+        <v>75</v>
+      </c>
+      <c r="M49" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="126"/>
       <c r="O49" s="17"/>
       <c r="P49" s="29"/>
-      <c r="Q49" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="R49" s="77"/>
-      <c r="S49" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="T49" s="77"/>
+      <c r="Q49" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="126"/>
+      <c r="S49" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="T49" s="126"/>
       <c r="W49" s="6"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -3670,38 +3671,38 @@
       <c r="AE50" s="7"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="103"/>
-      <c r="I51" s="104"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="120"/>
+      <c r="I51" s="121"/>
       <c r="L51" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M51" s="74">
+        <v>77</v>
+      </c>
+      <c r="M51" s="108">
         <v>13812341234</v>
       </c>
-      <c r="N51" s="75"/>
+      <c r="N51" s="117"/>
       <c r="O51" s="39"/>
       <c r="P51" s="59"/>
-      <c r="Q51" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="R51" s="77"/>
-      <c r="S51" s="76">
+      <c r="Q51" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="126"/>
+      <c r="S51" s="125">
         <v>4409021988</v>
       </c>
-      <c r="T51" s="77"/>
+      <c r="T51" s="126"/>
       <c r="W51" s="6"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -3742,21 +3743,21 @@
       <c r="AE52" s="7"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="104"/>
+      <c r="A53" s="122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="121"/>
       <c r="L53" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M53" s="62"/>
       <c r="N53" s="62"/>
@@ -3787,7 +3788,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="20"/>
       <c r="L54" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -3808,17 +3809,17 @@
       <c r="AE54" s="20"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="102"/>
+      <c r="A55" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="114"/>
       <c r="L55" s="39"/>
       <c r="M55" s="17"/>
       <c r="N55" s="40"/>
@@ -3840,7 +3841,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="52"/>
       <c r="C56" s="53"/>
@@ -3851,7 +3852,7 @@
       <c r="H56" s="53"/>
       <c r="I56" s="54"/>
       <c r="L56" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="28"/>
@@ -3873,16 +3874,16 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="75"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="108"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="117"/>
       <c r="L57" s="27"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
@@ -3904,16 +3905,16 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
+        <v>85</v>
+      </c>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
       <c r="L58" s="27"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -3936,40 +3937,40 @@
     <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="80" t="s">
-        <v>58</v>
+      <c r="C59" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="41"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="82" t="s">
-        <v>59</v>
+      <c r="G59" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="7"/>
       <c r="L59" s="6"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="80" t="s">
-        <v>58</v>
+      <c r="N59" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="82" t="s">
-        <v>59</v>
+      <c r="R59" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="7"/>
       <c r="W59" s="6"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="80" t="s">
-        <v>58</v>
+      <c r="Y59" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="41"/>
       <c r="AB59" s="2"/>
-      <c r="AC59" s="82" t="s">
-        <v>59</v>
+      <c r="AC59" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="7"/>
@@ -3977,55 +3978,55 @@
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="43"/>
-      <c r="C60" s="81"/>
+      <c r="C60" s="110"/>
       <c r="D60" s="43"/>
       <c r="E60" s="44"/>
       <c r="F60" s="43"/>
-      <c r="G60" s="82"/>
+      <c r="G60" s="87"/>
       <c r="H60" s="43"/>
       <c r="I60" s="45"/>
       <c r="L60" s="42"/>
       <c r="M60" s="43"/>
-      <c r="N60" s="81"/>
+      <c r="N60" s="110"/>
       <c r="O60" s="43"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="43"/>
-      <c r="R60" s="82"/>
+      <c r="R60" s="87"/>
       <c r="S60" s="43"/>
       <c r="T60" s="45"/>
       <c r="W60" s="42"/>
       <c r="X60" s="43"/>
-      <c r="Y60" s="81"/>
+      <c r="Y60" s="110"/>
       <c r="Z60" s="43"/>
       <c r="AA60" s="44"/>
       <c r="AB60" s="43"/>
-      <c r="AC60" s="82"/>
+      <c r="AC60" s="87"/>
       <c r="AD60" s="43"/>
       <c r="AE60" s="45"/>
     </row>
     <row r="63" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="L63" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="M63" s="82"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="82"/>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="82"/>
-      <c r="T63" s="82"/>
+      <c r="A63" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="87"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="L63" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="87"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="87"/>
     </row>
     <row r="64" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
@@ -4087,26 +4088,26 @@
       <c r="A67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="7"/>
       <c r="L67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M67" s="78" t="s">
+      <c r="M67" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="7"/>
@@ -4175,7 +4176,7 @@
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L70" s="72" t="s">
         <v>6</v>
@@ -4190,7 +4191,7 @@
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
       <c r="T70" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U70" s="11"/>
     </row>
@@ -4231,13 +4232,13 @@
         <v>15</v>
       </c>
       <c r="G72" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="69" t="s">
-        <v>99</v>
-      </c>
       <c r="I72" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>12</v>
@@ -4254,13 +4255,13 @@
         <v>15</v>
       </c>
       <c r="R72" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S72" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="S72" s="69" t="s">
-        <v>99</v>
-      </c>
       <c r="T72" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -4282,11 +4283,11 @@
         <v>25</v>
       </c>
       <c r="H73" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="9">
@@ -4307,7 +4308,7 @@
         <v>25</v>
       </c>
       <c r="S73" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T73" s="9"/>
     </row>
@@ -4330,11 +4331,11 @@
         <v>30</v>
       </c>
       <c r="H74" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I74" s="9"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="85"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="129"/>
       <c r="L74" s="9">
         <v>2</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="S74" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T74" s="9"/>
     </row>
@@ -4379,7 +4380,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4390,7 +4391,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="35"/>
       <c r="L76" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M76" s="33"/>
       <c r="N76" s="33"/>
@@ -4403,75 +4404,75 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="75"/>
+        <v>53</v>
+      </c>
+      <c r="B77" s="108"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="117"/>
       <c r="L77" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M77" s="74"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="79"/>
-      <c r="Q77" s="79"/>
-      <c r="R77" s="79"/>
-      <c r="S77" s="79"/>
-      <c r="T77" s="75"/>
+        <v>53</v>
+      </c>
+      <c r="M77" s="108"/>
+      <c r="N77" s="116"/>
+      <c r="O77" s="116"/>
+      <c r="P77" s="116"/>
+      <c r="Q77" s="116"/>
+      <c r="R77" s="116"/>
+      <c r="S77" s="116"/>
+      <c r="T77" s="117"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="74"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="75"/>
+        <v>54</v>
+      </c>
+      <c r="B78" s="108"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="117"/>
       <c r="L78" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M78" s="74"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="79"/>
-      <c r="R78" s="79"/>
-      <c r="S78" s="79"/>
-      <c r="T78" s="75"/>
+        <v>54</v>
+      </c>
+      <c r="M78" s="108"/>
+      <c r="N78" s="116"/>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116"/>
+      <c r="Q78" s="116"/>
+      <c r="R78" s="116"/>
+      <c r="S78" s="116"/>
+      <c r="T78" s="117"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="74"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="75"/>
+        <v>85</v>
+      </c>
+      <c r="B79" s="108"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="117"/>
       <c r="L79" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M79" s="74"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="79"/>
-      <c r="S79" s="79"/>
-      <c r="T79" s="75"/>
+        <v>85</v>
+      </c>
+      <c r="M79" s="108"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116"/>
+      <c r="T79" s="117"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="50"/>
@@ -4495,7 +4496,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4506,7 +4507,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="35"/>
       <c r="L81" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
@@ -4519,39 +4520,39 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="77"/>
+        <v>75</v>
+      </c>
+      <c r="B82" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="126"/>
       <c r="D82" s="17"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" s="77"/>
-      <c r="H82" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="77"/>
+      <c r="F82" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="126"/>
+      <c r="H82" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="126"/>
       <c r="L82" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="M82" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="N82" s="77"/>
+        <v>75</v>
+      </c>
+      <c r="M82" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="N82" s="126"/>
       <c r="O82" s="17"/>
       <c r="P82" s="29"/>
-      <c r="Q82" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="R82" s="77"/>
-      <c r="S82" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="T82" s="77"/>
+      <c r="Q82" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="R82" s="126"/>
+      <c r="S82" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="T82" s="126"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
@@ -4575,39 +4576,39 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="74">
+        <v>77</v>
+      </c>
+      <c r="B84" s="108">
         <v>13812341234</v>
       </c>
-      <c r="C84" s="75"/>
+      <c r="C84" s="117"/>
       <c r="D84" s="39"/>
       <c r="E84" s="59"/>
-      <c r="F84" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="77"/>
-      <c r="H84" s="76">
+      <c r="F84" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="126"/>
+      <c r="H84" s="125">
         <v>4409021988</v>
       </c>
-      <c r="I84" s="77"/>
+      <c r="I84" s="126"/>
       <c r="L84" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M84" s="74">
+        <v>77</v>
+      </c>
+      <c r="M84" s="108">
         <v>13812341234</v>
       </c>
-      <c r="N84" s="75"/>
+      <c r="N84" s="117"/>
       <c r="O84" s="39"/>
       <c r="P84" s="59"/>
-      <c r="Q84" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="R84" s="77"/>
-      <c r="S84" s="76">
+      <c r="Q84" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="R84" s="126"/>
+      <c r="S84" s="125">
         <v>4409021988</v>
       </c>
-      <c r="T84" s="77"/>
+      <c r="T84" s="126"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="50"/>
@@ -4692,27 +4693,27 @@
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="80" t="s">
-        <v>58</v>
+      <c r="C89" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="41"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="82" t="s">
-        <v>59</v>
+      <c r="G89" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="7"/>
       <c r="L89" s="6"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="80" t="s">
-        <v>58</v>
+      <c r="N89" s="109" t="s">
+        <v>57</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="41"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="82" t="s">
-        <v>59</v>
+      <c r="R89" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="7"/>
@@ -4720,43 +4721,134 @@
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="43"/>
-      <c r="C90" s="81"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="43"/>
       <c r="E90" s="44"/>
       <c r="F90" s="43"/>
-      <c r="G90" s="82"/>
+      <c r="G90" s="87"/>
       <c r="H90" s="43"/>
       <c r="I90" s="45"/>
       <c r="L90" s="42"/>
       <c r="M90" s="43"/>
-      <c r="N90" s="81"/>
+      <c r="N90" s="110"/>
       <c r="O90" s="43"/>
       <c r="P90" s="44"/>
       <c r="Q90" s="43"/>
-      <c r="R90" s="82"/>
+      <c r="R90" s="87"/>
       <c r="S90" s="43"/>
       <c r="T90" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="W1:AE1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="M67:Q67"/>
+    <mergeCell ref="M77:T77"/>
+    <mergeCell ref="M78:T78"/>
+    <mergeCell ref="M79:T79"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="X20:AE20"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="X21:AE21"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="X22:AE22"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="AF43:AG44"/>
+    <mergeCell ref="W33:AE33"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M44:T44"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="L33:T33"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E14:E15"/>
@@ -4781,119 +4873,28 @@
     <mergeCell ref="W14:Y14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="L33:T33"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="M46:T46"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="AF43:AG44"/>
-    <mergeCell ref="W33:AE33"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="M45:T45"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M44:T44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="W1:AE1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="X8:AC8"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="X22:AE22"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="X20:AE20"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="X21:AE21"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="M67:Q67"/>
-    <mergeCell ref="M77:T77"/>
-    <mergeCell ref="M78:T78"/>
-    <mergeCell ref="M79:T79"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -4907,24 +4908,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4938,294 +4939,289 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="E5" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="E5" s="136" t="s">
+      <c r="F5" s="74"/>
+      <c r="H5" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="H5" s="136" t="s">
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="74"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="74"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="86"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="74"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="134"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="122"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="122"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="134"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="135"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="122"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="136" t="s">
+      <c r="C10" s="85"/>
+      <c r="E10" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="E10" s="136" t="s">
+      <c r="F10" s="77"/>
+      <c r="H10" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="H10" s="136" t="s">
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="85"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="77"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="77"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="77"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="85"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="85"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="125"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="134"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="125"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="125"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="125"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="125"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="134"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="134"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="136" t="s">
+      <c r="C16" s="74"/>
+      <c r="E16" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="E16" s="136" t="s">
+      <c r="F16" s="74"/>
+      <c r="H16" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="H16" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="122"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="126"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="122"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="122"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="78"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="74"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="81" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H10:H11"/>
@@ -5233,6 +5229,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
